--- a/src/main/java/TestData/LoginData.xlsx
+++ b/src/main/java/TestData/LoginData.xlsx
@@ -3,24 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE109976-3647-4CA6-891B-BC04B6235BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1D241D-0A04-490F-8CCF-F675DD432CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Features Name</t>
   </si>
@@ -58,13 +66,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>No</t>
+    <t>RegressionTest</t>
   </si>
   <si>
     <t>SmokeTest</t>
-  </si>
-  <si>
-    <t>RegressionTest</t>
   </si>
   <si>
     <t>SanityTest</t>
@@ -461,22 +466,22 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -484,10 +489,10 @@
     </row>
     <row r="2" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>11</v>
@@ -495,10 +500,10 @@
     </row>
     <row r="3" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -506,21 +511,21 @@
     </row>
     <row r="4" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
@@ -528,43 +533,43 @@
     </row>
     <row r="6" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
